--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject39.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject39.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.88860284244794352</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -194,7 +194,7 @@
         <v>0</v>
       </c>
       <c r="W1" s="0">
-        <v>0</v>
+        <v>0.77646515777434</v>
       </c>
       <c r="X1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.73704692360647872</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.87438781218870854</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>0.87834147519180394</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -370,7 +370,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="0">
         <v>0</v>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="0">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0</v>
+        <v>0.89389987968505802</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.77962077667119067</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.94862301804875837</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.69009971291587857</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="BG3" s="0">
-        <v>0</v>
+        <v>0.52484829621571372</v>
       </c>
       <c r="BH3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.68887587382395998</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.70727105912414845</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.6223120304997114</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.76469530125540586</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="BM4" s="0">
-        <v>0</v>
+        <v>0.94830801128409381</v>
       </c>
       <c r="BN4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.8878175166418798</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="0">
-        <v>0</v>
+        <v>0.61988334025775826</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="AV5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW5" s="0">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="0">
-        <v>0</v>
+        <v>0.9784710397849995</v>
       </c>
       <c r="BO5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.79043653901171362</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.65779054061704012</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.99578426808316411</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="BK6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.69355427985150297</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.67488106520045354</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.6054180999989085</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.66321567322821884</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.78025980645017168</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.54207964871362457</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="0">
-        <v>0</v>
+        <v>0.80307597910669948</v>
       </c>
       <c r="U8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.77607356003902939</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="0">
-        <v>0</v>
+        <v>0.50815346533785943</v>
       </c>
       <c r="Y9" s="0">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="0">
-        <v>0</v>
+        <v>0.79963845693586322</v>
       </c>
       <c r="AO9" s="0">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="BF9" s="0">
-        <v>0</v>
+        <v>0.52488407877778087</v>
       </c>
       <c r="BG9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.87302430950926002</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.84132233308195203</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2087,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="0">
-        <v>0</v>
+        <v>0.55880988622649608</v>
       </c>
       <c r="AK10" s="0">
         <v>0</v>
       </c>
       <c r="AL10" s="0">
-        <v>0</v>
+        <v>0.7059954398389966</v>
       </c>
       <c r="AM10" s="0">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.97085656003627974</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.52107977357078439</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="BL11" s="0">
-        <v>0</v>
+        <v>0.93304909011324644</v>
       </c>
       <c r="BM11" s="0">
-        <v>0</v>
+        <v>0.72547513501612126</v>
       </c>
       <c r="BN11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.86687549935416452</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.99450592790994197</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>0</v>
+        <v>0.59158987159907572</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="0">
-        <v>0</v>
+        <v>0.90420178630829318</v>
       </c>
       <c r="AS12" s="0">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.77739221891692822</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.66562129517451529</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="0">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="0">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="0">
-        <v>0</v>
+        <v>0.97227883251682923</v>
       </c>
       <c r="AO13" s="0">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.93456938075925</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2866,10 +2866,10 @@
         <v>0</v>
       </c>
       <c r="U14" s="0">
-        <v>0</v>
+        <v>0.52463278900083399</v>
       </c>
       <c r="V14" s="0">
-        <v>0</v>
+        <v>0.85838296458716434</v>
       </c>
       <c r="W14" s="0">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="0">
-        <v>0</v>
+        <v>0.72635159214604361</v>
       </c>
       <c r="AF14" s="0">
         <v>0</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="BH14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="0">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>0</v>
+        <v>0.56642004746237462</v>
       </c>
       <c r="F15" s="0">
         <v>0</v>
@@ -3057,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.96288137994885281</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="AT15" s="0">
-        <v>0</v>
+        <v>0.85939640515763149</v>
       </c>
       <c r="AU15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.82040032304159449</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="AW16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="0">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="BK16" s="0">
-        <v>0</v>
+        <v>0.8059902601788187</v>
       </c>
       <c r="BL16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.61463048553246669</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.68949173030504918</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="0">
-        <v>0</v>
+        <v>0.90761333917302545</v>
       </c>
       <c r="W17" s="0">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="AD17" s="0">
-        <v>0</v>
+        <v>0.88720466491378591</v>
       </c>
       <c r="AE17" s="0">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="BF17" s="0">
-        <v>0</v>
+        <v>0.57206635594743882</v>
       </c>
       <c r="BG17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.70674959757796008</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.93820865905058481</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.69917956103904366</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.87595378978444804</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.86447123048761099</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="0">
-        <v>0</v>
+        <v>0.55888926288576757</v>
       </c>
       <c r="Y19" s="0">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="0">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="0">
-        <v>0</v>
+        <v>0.92824516698617465</v>
       </c>
       <c r="AW19" s="0">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="0">
-        <v>0</v>
+        <v>0.94603207668818801</v>
       </c>
       <c r="I20" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.83672367251756863</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="AC20" s="0">
-        <v>0</v>
+        <v>0.82680782718940793</v>
       </c>
       <c r="AD20" s="0">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="0">
-        <v>0</v>
+        <v>0.57900232174667354</v>
       </c>
       <c r="AL20" s="0">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="0">
-        <v>0</v>
+        <v>0.6453826684912698</v>
       </c>
       <c r="AV20" s="0">
         <v>0</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>0</v>
+        <v>0.99446474589436495</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.98091458764897377</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.89470294806569894</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="0">
-        <v>0</v>
+        <v>0.58986357566411884</v>
       </c>
       <c r="AE21" s="0">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="0">
-        <v>0</v>
+        <v>0.67373615332270864</v>
       </c>
       <c r="AQ21" s="0">
         <v>0</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="BF21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="0">
         <v>0</v>
@@ -4490,10 +4490,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="0">
-        <v>0</v>
+        <v>0.77555409324822089</v>
       </c>
       <c r="O22" s="0">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>0</v>
+        <v>0.85323118996721581</v>
       </c>
       <c r="R22" s="0">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.88831860236995452</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.87404933101003368</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="0">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="BH22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="0">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="BK22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL22" s="0">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="BO22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP22" s="0">
         <v>0</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0</v>
+        <v>0.82771046300565021</v>
       </c>
       <c r="B23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.93860123011058949</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="AN23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="0">
         <v>0</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="BA23" s="0">
-        <v>0</v>
+        <v>0.87646387616837029</v>
       </c>
       <c r="BB23" s="0">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="BF23" s="0">
-        <v>0</v>
+        <v>0.88347364094977543</v>
       </c>
       <c r="BG23" s="0">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="0">
-        <v>0</v>
+        <v>0.55666378869579236</v>
       </c>
       <c r="J24" s="0">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="0">
-        <v>0</v>
+        <v>0.64706268010145962</v>
       </c>
       <c r="T24" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.76395931769436243</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.72287870547881439</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5034,13 +5034,13 @@
         <v>0</v>
       </c>
       <c r="BE24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="0">
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH24" s="0">
         <v>0</v>
@@ -5141,16 +5141,16 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.70152737790892283</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5171,10 +5171,10 @@
         <v>0</v>
       </c>
       <c r="AH25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="0">
-        <v>0</v>
+        <v>0.87681075734276359</v>
       </c>
       <c r="AJ25" s="0">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="0">
-        <v>0</v>
+        <v>0.81610315943367107</v>
       </c>
       <c r="AP25" s="0">
         <v>0</v>
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="AR25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS25" s="0">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="BA25" s="0">
-        <v>0</v>
+        <v>0.89120490920113893</v>
       </c>
       <c r="BB25" s="0">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="BI25" s="0">
-        <v>0</v>
+        <v>0.76192202695470712</v>
       </c>
       <c r="BJ25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.58232724975435934</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="0">
-        <v>0</v>
+        <v>0.62923541727784471</v>
       </c>
       <c r="AL26" s="0">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="BO26" s="0">
-        <v>0</v>
+        <v>0.52509902368324757</v>
       </c>
       <c r="BP26" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.57081344475455431</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.62208594688101737</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.58294301842551222</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>0</v>
+        <v>0.70217930011981788</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="BJ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK27" s="0">
         <v>0</v>
@@ -5723,10 +5723,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="0">
-        <v>0</v>
+        <v>0.83415773400792026</v>
       </c>
       <c r="M28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.82840260040252856</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.95622611532935597</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.88055437903827716</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="0">
-        <v>0</v>
+        <v>0.81897757553951478</v>
       </c>
       <c r="U29" s="0">
         <v>0</v>
@@ -5974,16 +5974,16 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.6698266092613181</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.95223935646424351</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.76097207687123403</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="0">
-        <v>0</v>
+        <v>0.54233348476587739</v>
       </c>
       <c r="BA29" s="0">
         <v>0</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="BC29" s="0">
-        <v>0</v>
+        <v>0.73327810070702637</v>
       </c>
       <c r="BD29" s="0">
         <v>0</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="BG29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH29" s="0">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="0">
-        <v>0</v>
+        <v>0.8265358337860258</v>
       </c>
       <c r="R30" s="0">
         <v>0</v>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="0">
-        <v>0</v>
+        <v>0.98582590224283873</v>
       </c>
       <c r="V30" s="0">
         <v>0</v>
@@ -6183,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.66469225878097582</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.93965105060137144</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>0</v>
+        <v>0.50911657154968526</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="AU30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV30" s="0">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="BB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC30" s="0">
         <v>0</v>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="0">
-        <v>0</v>
+        <v>0.63066114221227676</v>
       </c>
       <c r="O31" s="0">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="0">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.79800010314788627</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="AM31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN31" s="0">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="BD31" s="0">
-        <v>0</v>
+        <v>0.7275309312699143</v>
       </c>
       <c r="BE31" s="0">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0</v>
+        <v>0.64651639547966977</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.88167754280267796</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.92716212418453781</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="AW32" s="0">
-        <v>0</v>
+        <v>0.92618056089341794</v>
       </c>
       <c r="AX32" s="0">
         <v>0</v>
@@ -6813,16 +6813,16 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.87085669586255365</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.65558011253881932</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0">
         <v>0</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.86610516766803214</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.9545769265981161</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.77974266205967535</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0</v>
+        <v>0.56041355914613722</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7049,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="0">
-        <v>0</v>
+        <v>0.66130448089339144</v>
       </c>
       <c r="AQ34" s="0">
         <v>0</v>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="BF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG34" s="0">
         <v>0</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>0</v>
+        <v>0.57608421170503543</v>
       </c>
       <c r="Z35" s="0">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.81391308358699621</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.75120142680863955</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="0">
         <v>0</v>
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="AR35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="0">
         <v>0</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="AV35" s="0">
-        <v>0</v>
+        <v>0.76824823250503327</v>
       </c>
       <c r="AW35" s="0">
         <v>0</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="0">
-        <v>0</v>
+        <v>0.73185105773155157</v>
       </c>
       <c r="K36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0</v>
+        <v>0.86710842872751326</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.73563875283746927</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="0">
-        <v>0</v>
+        <v>0.6334548474597631</v>
       </c>
       <c r="U37" s="0">
         <v>0</v>
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="0">
-        <v>0</v>
+        <v>0.70618368143086507</v>
       </c>
       <c r="AA37" s="0">
         <v>0</v>
@@ -7649,22 +7649,22 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.99638645608881715</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
       </c>
       <c r="AO37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="0">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="BD37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE37" s="0">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="0">
-        <v>0</v>
+        <v>0.7864308655702007</v>
       </c>
       <c r="K38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.79529091413788211</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.94017292217023762</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.81164160252050477</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.55577071582208326</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="BJ38" s="0">
-        <v>0</v>
+        <v>0.97664899238020642</v>
       </c>
       <c r="BK38" s="0">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.54798352548230223</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.82907406273076156</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="AR39" s="0">
-        <v>0</v>
+        <v>0.79191944144755344</v>
       </c>
       <c r="AS39" s="0">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="BI39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ39" s="0">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="BN39" s="0">
-        <v>0</v>
+        <v>0.96699844204426566</v>
       </c>
       <c r="BO39" s="0">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="0">
-        <v>0</v>
+        <v>0.69001812706761745</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="0">
-        <v>0</v>
+        <v>0.88815580037021968</v>
       </c>
       <c r="N40" s="0">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.52308226102016231</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0</v>
+        <v>0.88538536818725988</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.75834318602829009</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>0</v>
+        <v>0.68240537739462059</v>
       </c>
       <c r="AY40" s="0">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="BH40" s="0">
-        <v>0</v>
+        <v>0.72903491240723906</v>
       </c>
       <c r="BI40" s="0">
         <v>0</v>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="BM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN40" s="0">
         <v>0</v>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="0">
-        <v>0</v>
+        <v>0.96832772963870495</v>
       </c>
       <c r="Z41" s="0">
         <v>0</v>
@@ -8476,25 +8476,25 @@
         <v>0</v>
       </c>
       <c r="AK41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="0">
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.87118616252546932</v>
       </c>
       <c r="AN41" s="0">
-        <v>0</v>
+        <v>0.96666107059148954</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.61245594075328447</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8530,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="BC41" s="0">
-        <v>0</v>
+        <v>0.61396315207140972</v>
       </c>
       <c r="BD41" s="0">
         <v>0</v>
@@ -8589,10 +8589,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="0">
-        <v>0</v>
+        <v>0.64019442239495061</v>
       </c>
       <c r="V42" s="0">
         <v>0</v>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="AH42" s="0">
-        <v>0</v>
+        <v>0.82058904160793489</v>
       </c>
       <c r="AI42" s="0">
         <v>0</v>
@@ -8691,10 +8691,10 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.64750294090960248</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="AU42" s="0">
-        <v>0</v>
+        <v>0.96861615353420283</v>
       </c>
       <c r="AV42" s="0">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="BO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP42" s="0">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>0</v>
+        <v>0.81324791285960429</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.5566196557038936</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8909,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.67440578262639317</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="0">
-        <v>0</v>
+        <v>0.54709266030516679</v>
       </c>
       <c r="M44" s="0">
         <v>0</v>
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="0">
         <v>0</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ44" s="0">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="AM44" s="0">
-        <v>0</v>
+        <v>0.75478539238058695</v>
       </c>
       <c r="AN44" s="0">
         <v>0</v>
@@ -9112,13 +9112,13 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.54706223524962627</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="AV44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW44" s="0">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.96996286087124095</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.51394237715240809</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.63126129308772994</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.94753660178093324</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9354,7 +9354,7 @@
         <v>0</v>
       </c>
       <c r="BC45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD45" s="0">
         <v>0</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="0">
-        <v>0</v>
+        <v>0.71117834145281467</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
@@ -9530,16 +9530,16 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.87571518691290917</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.51517750949345076</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.65082106648748894</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA46" s="0">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>0</v>
+        <v>0.69841858531996048</v>
       </c>
       <c r="U47" s="0">
         <v>0</v>
@@ -9691,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="AD47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="0">
         <v>0</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="AP47" s="0">
-        <v>0</v>
+        <v>0.71098123541737768</v>
       </c>
       <c r="AQ47" s="0">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.60701620587880789</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.78452087394168435</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="BD47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE47" s="0">
         <v>0</v>
@@ -9822,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="0">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="0">
-        <v>0</v>
+        <v>0.83053150476596549</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -9912,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="AI48" s="0">
-        <v>0</v>
+        <v>0.86133595734907809</v>
       </c>
       <c r="AJ48" s="0">
         <v>0</v>
@@ -9939,13 +9939,13 @@
         <v>0</v>
       </c>
       <c r="AR48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS48" s="0">
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.56534647334285704</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.67460834795457814</v>
       </c>
       <c r="AX48" s="0">
-        <v>0</v>
+        <v>0.82618273202399217</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="0">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="AF49" s="0">
-        <v>0</v>
+        <v>0.76055210808567686</v>
       </c>
       <c r="AG49" s="0">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.90351227634970077</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.99333483864424255</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="BM49" s="0">
-        <v>0</v>
+        <v>0.53214557459092893</v>
       </c>
       <c r="BN49" s="0">
         <v>0</v>
       </c>
       <c r="BO49" s="0">
-        <v>0</v>
+        <v>0.71473185132578321</v>
       </c>
       <c r="BP49" s="0">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="AN50" s="0">
-        <v>0</v>
+        <v>0.50432975826976101</v>
       </c>
       <c r="AO50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0</v>
+        <v>0.75125819756067003</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.67392286978954208</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="BE50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF50" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.81084318582694892</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0</v>
+        <v>0.91541955211709736</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.58236049684453084</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="BF51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG51" s="0">
         <v>0</v>
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="0">
-        <v>0</v>
+        <v>0.87635832580788597</v>
       </c>
       <c r="AD52" s="0">
         <v>0</v>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="AT52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU52" s="0">
         <v>0</v>
@@ -10781,16 +10781,16 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.56001696501081855</v>
       </c>
       <c r="AY52" s="0">
-        <v>0</v>
+        <v>0.97958823671840012</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.86412970959092239</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10906,13 +10906,13 @@
         <v>0</v>
       </c>
       <c r="W53" s="0">
-        <v>0</v>
+        <v>0.58269220860521531</v>
       </c>
       <c r="X53" s="0">
         <v>0</v>
       </c>
       <c r="Y53" s="0">
-        <v>0</v>
+        <v>0.91954970987354767</v>
       </c>
       <c r="Z53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.6895357877997379</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.98909521286707613</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.93592944701374248</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.70657927206555149</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="AD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="0">
         <v>0</v>
@@ -11202,16 +11202,16 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.54971577033827224</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0</v>
+        <v>0.63123312692347011</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.52616998509034429</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="BL54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM54" s="0">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="0">
-        <v>0</v>
+        <v>0.69594675900583347</v>
       </c>
       <c r="AD55" s="0">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="AO55" s="0">
-        <v>0</v>
+        <v>0.58513050682594714</v>
       </c>
       <c r="AP55" s="0">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="AS55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.58589844526295143</v>
       </c>
       <c r="BB55" s="0">
-        <v>0</v>
+        <v>0.56890863660464408</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.96065414846499242</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.56363397861069797</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11548,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="AE56" s="0">
-        <v>0</v>
+        <v>0.7547850225177033</v>
       </c>
       <c r="AF56" s="0">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="0">
         <v>0</v>
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="AU56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.99462594643578961</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.72572016550340257</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.57694757793272466</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="0">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="AX57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.78195465922366403</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0</v>
+        <v>0.63044937508066079</v>
       </c>
       <c r="BG57" s="0">
-        <v>0</v>
+        <v>0.7741057508176814</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11894,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="0">
-        <v>0</v>
+        <v>0.8117009502960516</v>
       </c>
       <c r="J58" s="0">
         <v>0</v>
@@ -11918,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>0</v>
+        <v>0.91830806950810806</v>
       </c>
       <c r="R58" s="0">
         <v>0</v>
@@ -11930,13 +11930,13 @@
         <v>0</v>
       </c>
       <c r="U58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" s="0">
         <v>0</v>
       </c>
       <c r="W58" s="0">
-        <v>0</v>
+        <v>0.5727721118169854</v>
       </c>
       <c r="X58" s="0">
         <v>0</v>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="AH58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI58" s="0">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="AY58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ58" s="0">
         <v>0</v>
@@ -12035,10 +12035,10 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.60106288256758866</v>
       </c>
       <c r="BE58" s="0">
-        <v>0</v>
+        <v>0.62955817217789245</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12047,13 +12047,13 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.61557452793611689</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
       </c>
       <c r="BJ58" s="0">
-        <v>0</v>
+        <v>0.53976623825786607</v>
       </c>
       <c r="BK58" s="0">
         <v>0</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="BN58" s="0">
-        <v>0</v>
+        <v>0.86169994687064932</v>
       </c>
       <c r="BO58" s="0">
         <v>0</v>
@@ -12082,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="0">
-        <v>0</v>
+        <v>0.93888149240445529</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="0">
         <v>0</v>
@@ -12160,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0</v>
+        <v>0.73785728372604198</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0</v>
+        <v>0.82523493043229612</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.9886607632647576</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12321,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="0">
         <v>0</v>
@@ -12345,7 +12345,7 @@
         <v>0</v>
       </c>
       <c r="V60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60" s="0">
         <v>0</v>
@@ -12399,7 +12399,7 @@
         <v>0</v>
       </c>
       <c r="AN60" s="0">
-        <v>0</v>
+        <v>0.7492501949171908</v>
       </c>
       <c r="AO60" s="0">
         <v>0</v>
@@ -12453,16 +12453,16 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.97656628660450884</v>
       </c>
       <c r="BG60" s="0">
-        <v>0</v>
+        <v>0.73815765545918521</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.93434079781598867</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="BP60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="0">
-        <v>0</v>
+        <v>0.56474793031776149</v>
       </c>
       <c r="Z61" s="0">
         <v>0</v>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="AM61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN61" s="0">
         <v>0</v>
@@ -12662,16 +12662,16 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.68681065025662935</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.95394573830354001</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.67189657807470404</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="AA62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="0">
         <v>0</v>
@@ -12805,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="AL62" s="0">
-        <v>0</v>
+        <v>0.69320506239581958</v>
       </c>
       <c r="AM62" s="0">
         <v>0</v>
@@ -12865,7 +12865,7 @@
         <v>0</v>
       </c>
       <c r="BF62" s="0">
-        <v>0</v>
+        <v>0.60238646206859658</v>
       </c>
       <c r="BG62" s="0">
         <v>0</v>
@@ -12874,16 +12874,16 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.88334831761646471</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="0">
         <v>0</v>
@@ -12945,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="0">
-        <v>0</v>
+        <v>0.95929348526596103</v>
       </c>
       <c r="Q63" s="0">
         <v>0</v>
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63" s="0">
         <v>0</v>
@@ -13083,16 +13083,16 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.5211750614950188</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.84740019620631535</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="0">
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>0</v>
+        <v>0.7768298894758352</v>
       </c>
       <c r="L64" s="0">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="BB64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.6952853667946759</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.52244736654824797</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.95568344167515362</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="0">
-        <v>0</v>
+        <v>0.53529055100489531</v>
       </c>
       <c r="E65" s="0">
         <v>0</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="0">
-        <v>0</v>
+        <v>0.95518912027042102</v>
       </c>
       <c r="L65" s="0">
         <v>0</v>
@@ -13429,7 +13429,7 @@
         <v>0</v>
       </c>
       <c r="AN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO65" s="0">
         <v>0</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="AW65" s="0">
-        <v>0</v>
+        <v>0.83216511161051987</v>
       </c>
       <c r="AX65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.96681870033230177</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.8710661897710803</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="0">
-        <v>0</v>
+        <v>0.90057554089822434</v>
       </c>
       <c r="F66" s="0">
         <v>0</v>
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="AM66" s="0">
-        <v>0</v>
+        <v>0.84897376145930625</v>
       </c>
       <c r="AN66" s="0">
         <v>0</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="BF66" s="0">
-        <v>0</v>
+        <v>0.74153522338394384</v>
       </c>
       <c r="BG66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.92252843002229334</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67" s="0">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="0">
-        <v>0</v>
+        <v>0.62010551326870655</v>
       </c>
       <c r="AA67" s="0">
         <v>0</v>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ67" s="0">
         <v>0</v>
@@ -13868,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="AW67" s="0">
-        <v>0</v>
+        <v>0.6869652729287018</v>
       </c>
       <c r="AX67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.7673129782453173</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.78402289885913246</v>
       </c>
       <c r="B68" s="0">
-        <v>0</v>
+        <v>0.72348859720359049</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="BH68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.56283607540052272</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject39.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject39.xlsx
@@ -194,7 +194,7 @@
         <v>0</v>
       </c>
       <c r="W1" s="0">
-        <v>0.77646515777434</v>
+        <v>0.82771046300565021</v>
       </c>
       <c r="X1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.73704692360647872</v>
+        <v>0.78402289885913246</v>
       </c>
     </row>
     <row r="2">
@@ -340,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.87438781218870854</v>
+        <v>0.94862301804875837</v>
       </c>
       <c r="D2" s="0">
         <v>0.87834147519180394</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.77962077667119067</v>
+        <v>0.88860284244794352</v>
       </c>
       <c r="B3" s="0">
         <v>0.94862301804875837</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.69009971291587857</v>
+        <v>0.70727105912414845</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="BG3" s="0">
-        <v>0.52484829621571372</v>
+        <v>0.93888149240445529</v>
       </c>
       <c r="BH3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.68887587382395998</v>
+        <v>0.87834147519180394</v>
       </c>
       <c r="C4" s="0">
         <v>0.70727105912414845</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.6223120304997114</v>
+        <v>0.8878175166418798</v>
       </c>
       <c r="F4" s="0">
-        <v>0.76469530125540586</v>
+        <v>0.79043653901171362</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.65779054061704012</v>
+        <v>0.69355427985150297</v>
       </c>
       <c r="H6" s="0">
         <v>0.99578426808316411</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.67488106520045354</v>
+        <v>0.78025980645017168</v>
       </c>
       <c r="I7" s="0">
-        <v>0.6054180999989085</v>
+        <v>0.77607356003902939</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.66321567322821884</v>
+        <v>0.99578426808316411</v>
       </c>
       <c r="G8" s="0">
         <v>0.78025980645017168</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0.54207964871362457</v>
+        <v>0.87302430950926002</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="0">
-        <v>0.80307597910669948</v>
+        <v>0.94603207668818801</v>
       </c>
       <c r="U8" s="0">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="0">
-        <v>0.50815346533785943</v>
+        <v>0.55666378869579236</v>
       </c>
       <c r="Y9" s="0">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="BF9" s="0">
-        <v>0.52488407877778087</v>
+        <v>0.8117009502960516</v>
       </c>
       <c r="BG9" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.84132233308195203</v>
+        <v>0.97085656003627974</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2087,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="0">
-        <v>0.55880988622649608</v>
+        <v>0.73185105773155157</v>
       </c>
       <c r="AK10" s="0">
         <v>0</v>
       </c>
       <c r="AL10" s="0">
-        <v>0.7059954398389966</v>
+        <v>0.7864308655702007</v>
       </c>
       <c r="AM10" s="0">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.52107977357078439</v>
+        <v>0.86687549935416452</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0.93304909011324644</v>
       </c>
       <c r="BM11" s="0">
-        <v>0.72547513501612126</v>
+        <v>0.95518912027042102</v>
       </c>
       <c r="BN11" s="0">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>0.59158987159907572</v>
+        <v>0.83415773400792026</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0.77739221891692822</v>
+        <v>0.99450592790994197</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.66562129517451529</v>
+        <v>0.93456938075925</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="0">
-        <v>0.52463278900083399</v>
+        <v>0.99446474589436495</v>
       </c>
       <c r="V14" s="0">
         <v>0.85838296458716434</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>0.56642004746237462</v>
+        <v>0.61988334025775826</v>
       </c>
       <c r="F15" s="0">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="BK16" s="0">
-        <v>0.8059902601788187</v>
+        <v>0.95929348526596103</v>
       </c>
       <c r="BL16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.61463048553246669</v>
+        <v>0.96288137994885281</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0.68949173030504918</v>
+        <v>0.87595378978444804</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="BF17" s="0">
-        <v>0.57206635594743882</v>
+        <v>0.91830806950810806</v>
       </c>
       <c r="BG17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.70674959757796008</v>
+        <v>0.82040032304159449</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0.93820865905058481</v>
       </c>
       <c r="T18" s="0">
-        <v>0.69917956103904366</v>
+        <v>0.83672367251756863</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0.87595378978444804</v>
       </c>
       <c r="R19" s="0">
-        <v>0.86447123048761099</v>
+        <v>0.93820865905058481</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="X19" s="0">
-        <v>0.55888926288576757</v>
+        <v>0.64706268010145962</v>
       </c>
       <c r="Y19" s="0">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="0">
-        <v>0.57900232174667354</v>
+        <v>0.6334548474597631</v>
       </c>
       <c r="AL20" s="0">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="0">
-        <v>0.6453826684912698</v>
+        <v>0.69841858531996048</v>
       </c>
       <c r="AV20" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0.98091458764897377</v>
       </c>
       <c r="W21" s="0">
-        <v>0.89470294806569894</v>
+        <v>0.93860123011058949</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="0">
-        <v>0.58986357566411884</v>
+        <v>0.98582590224283873</v>
       </c>
       <c r="AE21" s="0">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="0">
-        <v>0.77555409324822089</v>
+        <v>0.85838296458716434</v>
       </c>
       <c r="O22" s="0">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.85323118996721581</v>
+        <v>0.90761333917302545</v>
       </c>
       <c r="R22" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0.88831860236995452</v>
+        <v>0.98091458764897377</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.76395931769436243</v>
+        <v>0.87404933101003368</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>0.70152737790892283</v>
+        <v>0.72287870547881439</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="0">
-        <v>0.81610315943367107</v>
+        <v>0.96832772963870495</v>
       </c>
       <c r="AP25" s="0">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="BA25" s="0">
-        <v>0.89120490920113893</v>
+        <v>0.91954970987354767</v>
       </c>
       <c r="BB25" s="0">
         <v>0</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="0">
-        <v>0.62923541727784471</v>
+        <v>0.70618368143086507</v>
       </c>
       <c r="AL26" s="0">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="BO26" s="0">
-        <v>0.52509902368324757</v>
+        <v>0.62010551326870655</v>
       </c>
       <c r="BP26" s="0">
         <v>0</v>
@@ -5559,16 +5559,16 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.57081344475455431</v>
+        <v>0.58232724975435934</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.62208594688101737</v>
+        <v>0.82840260040252856</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.58294301842551222</v>
+        <v>0.6698266092613181</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>0.70217930011981788</v>
+        <v>0.81324791285960429</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="0">
-        <v>0.81897757553951478</v>
+        <v>0.82680782718940793</v>
       </c>
       <c r="U29" s="0">
         <v>0</v>
@@ -5977,13 +5977,13 @@
         <v>0.6698266092613181</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.95223935646424351</v>
+        <v>0.95622611532935597</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.76097207687123403</v>
+        <v>0.93965105060137144</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="0">
-        <v>0.54233348476587739</v>
+        <v>0.87635832580788597</v>
       </c>
       <c r="BA29" s="0">
         <v>0</v>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="0">
-        <v>0.8265358337860258</v>
+        <v>0.88720466491378591</v>
       </c>
       <c r="R30" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.66469225878097582</v>
+        <v>0.88055437903827716</v>
       </c>
       <c r="AC30" s="0">
         <v>0.93965105060137144</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.50911657154968526</v>
+        <v>0.64651639547966977</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="0">
-        <v>0.63066114221227676</v>
+        <v>0.72635159214604361</v>
       </c>
       <c r="O31" s="0">
         <v>0</v>
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.79800010314788627</v>
+        <v>0.88167754280267796</v>
       </c>
       <c r="AG31" s="0">
         <v>0</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="BD31" s="0">
-        <v>0.7275309312699143</v>
+        <v>0.7547850225177033</v>
       </c>
       <c r="BE31" s="0">
         <v>0</v>
@@ -6819,10 +6819,10 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.87085669586255365</v>
+        <v>0.9545769265981161</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.65558011253881932</v>
+        <v>0.81391308358699621</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.86610516766803214</v>
+        <v>0.92716212418453781</v>
       </c>
       <c r="AG34" s="0">
         <v>0.9545769265981161</v>
@@ -7031,7 +7031,7 @@
         <v>0.77974266205967535</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.56041355914613722</v>
+        <v>0.86710842872751326</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7049,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="0">
-        <v>0.66130448089339144</v>
+        <v>0.82058904160793489</v>
       </c>
       <c r="AQ34" s="0">
         <v>0</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>0.57608421170503543</v>
+        <v>0.87681075734276359</v>
       </c>
       <c r="Z35" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0.81391308358699621</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.75120142680863955</v>
+        <v>0.77974266205967535</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="AV35" s="0">
-        <v>0.76824823250503327</v>
+        <v>0.86133595734907809</v>
       </c>
       <c r="AW35" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.73563875283746927</v>
+        <v>0.79529091413788211</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0.79529091413788211</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.94017292217023762</v>
+        <v>0.99638645608881715</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.54798352548230223</v>
+        <v>0.81164160252050477</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.82907406273076156</v>
+        <v>0.87118616252546932</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="0">
-        <v>0.69001812706761745</v>
+        <v>0.79963845693586322</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="0">
-        <v>0.88815580037021968</v>
+        <v>0.97227883251682923</v>
       </c>
       <c r="N40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.52308226102016231</v>
+        <v>0.55577071582208326</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.88538536818725988</v>
+        <v>0.96666107059148954</v>
       </c>
       <c r="AP40" s="0">
         <v>0.75834318602829009</v>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="BH40" s="0">
-        <v>0.72903491240723906</v>
+        <v>0.7492501949171908</v>
       </c>
       <c r="BI40" s="0">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="0">
-        <v>0.64019442239495061</v>
+        <v>0.67373615332270864</v>
       </c>
       <c r="V42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.64750294090960248</v>
+        <v>0.75834318602829009</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.5566196557038936</v>
+        <v>0.61245594075328447</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.67440578262639317</v>
+        <v>0.96996286087124095</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="0">
-        <v>0.54709266030516679</v>
+        <v>0.90420178630829318</v>
       </c>
       <c r="M44" s="0">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="AM44" s="0">
-        <v>0.75478539238058695</v>
+        <v>0.79191944144755344</v>
       </c>
       <c r="AN44" s="0">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0.96996286087124095</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.51394237715240809</v>
+        <v>0.54706223524962627</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.63126129308772994</v>
+        <v>0.87571518691290917</v>
       </c>
       <c r="AU45" s="0">
         <v>0.94753660178093324</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="0">
-        <v>0.71117834145281467</v>
+        <v>0.85939640515763149</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.51517750949345076</v>
+        <v>0.78452087394168435</v>
       </c>
       <c r="AV46" s="0">
         <v>0.65082106648748894</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="AP47" s="0">
-        <v>0.71098123541737768</v>
+        <v>0.96861615353420283</v>
       </c>
       <c r="AQ47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.60701620587880789</v>
+        <v>0.94753660178093324</v>
       </c>
       <c r="AT47" s="0">
         <v>0.78452087394168435</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="0">
-        <v>0.83053150476596549</v>
+        <v>0.92824516698617465</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.56534647334285704</v>
+        <v>0.65082106648748894</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.67460834795457814</v>
+        <v>0.90351227634970077</v>
       </c>
       <c r="AX48" s="0">
         <v>0.82618273202399217</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="AF49" s="0">
-        <v>0.76055210808567686</v>
+        <v>0.92618056089341794</v>
       </c>
       <c r="AG49" s="0">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="0">
-        <v>0.53214557459092893</v>
+        <v>0.83216511161051987</v>
       </c>
       <c r="BN49" s="0">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="AN50" s="0">
-        <v>0.50432975826976101</v>
+        <v>0.68240537739462059</v>
       </c>
       <c r="AO50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.75125819756067003</v>
+        <v>0.82618273202399217</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.81084318582694892</v>
+        <v>0.99333483864424255</v>
       </c>
       <c r="AX51" s="0">
         <v>0</v>
@@ -10581,10 +10581,10 @@
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.91541955211709736</v>
+        <v>0.97958823671840012</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.58236049684453084</v>
+        <v>0.6895357877997379</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.56001696501081855</v>
+        <v>0.67392286978954208</v>
       </c>
       <c r="AY52" s="0">
         <v>0.97958823671840012</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.86412970959092239</v>
+        <v>0.98909521286707613</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10906,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="0">
-        <v>0.58269220860521531</v>
+        <v>0.87646387616837029</v>
       </c>
       <c r="X53" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.54971577033827224</v>
+        <v>0.93592944701374248</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0.63123312692347011</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.52616998509034429</v>
+        <v>0.99462594643578961</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="0">
-        <v>0.69594675900583347</v>
+        <v>0.73327810070702637</v>
       </c>
       <c r="AD55" s="0">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="AO55" s="0">
-        <v>0.58513050682594714</v>
+        <v>0.61396315207140972</v>
       </c>
       <c r="AP55" s="0">
         <v>0</v>
@@ -11408,10 +11408,10 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.58589844526295143</v>
+        <v>0.70657927206555149</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.56890863660464408</v>
+        <v>0.63123312692347011</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0.96065414846499242</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.56363397861069797</v>
+        <v>0.78195465922366403</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0.99462594643578961</v>
       </c>
       <c r="BC56" s="0">
-        <v>0.72572016550340257</v>
+        <v>0.96065414846499242</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.57694757793272466</v>
+        <v>0.60106288256758866</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11936,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="0">
-        <v>0.5727721118169854</v>
+        <v>0.88347364094977543</v>
       </c>
       <c r="X58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0.60106288256758866</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.62955817217789245</v>
+        <v>0.63044937508066079</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12047,13 +12047,13 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.61557452793611689</v>
+        <v>0.97656628660450884</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
       </c>
       <c r="BJ58" s="0">
-        <v>0.53976623825786607</v>
+        <v>0.60238646206859658</v>
       </c>
       <c r="BK58" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.73785728372604198</v>
+        <v>0.7741057508176814</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12456,13 +12456,13 @@
         <v>0.97656628660450884</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.73815765545918521</v>
+        <v>0.82523493043229612</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.93434079781598867</v>
+        <v>0.95394573830354001</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12560,7 +12560,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="0">
-        <v>0.56474793031776149</v>
+        <v>0.76192202695470712</v>
       </c>
       <c r="Z61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.68681065025662935</v>
+        <v>0.9886607632647576</v>
       </c>
       <c r="BH61" s="0">
         <v>0.95394573830354001</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.67189657807470404</v>
+        <v>0.88334831761646471</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12805,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="AL62" s="0">
-        <v>0.69320506239581958</v>
+        <v>0.97664899238020642</v>
       </c>
       <c r="AM62" s="0">
         <v>0</v>
@@ -13089,10 +13089,10 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.5211750614950188</v>
+        <v>0.6952853667946759</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.84740019620631535</v>
+        <v>0.96681870033230177</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>0.7768298894758352</v>
+        <v>0.93304909011324644</v>
       </c>
       <c r="L64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.52244736654824797</v>
+        <v>0.8710661897710803</v>
       </c>
       <c r="BN64" s="0">
         <v>0.95568344167515362</v>
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="D65" s="0">
-        <v>0.53529055100489531</v>
+        <v>0.94830801128409381</v>
       </c>
       <c r="E65" s="0">
         <v>0</v>
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="0">
-        <v>0.90057554089822434</v>
+        <v>0.9784710397849995</v>
       </c>
       <c r="F66" s="0">
         <v>0</v>
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="AM66" s="0">
-        <v>0.84897376145930625</v>
+        <v>0.96699844204426566</v>
       </c>
       <c r="AN66" s="0">
         <v>0</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="BF66" s="0">
-        <v>0.74153522338394384</v>
+        <v>0.86169994687064932</v>
       </c>
       <c r="BG66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.92252843002229334</v>
+        <v>0.95568344167515362</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13868,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="AW67" s="0">
-        <v>0.6869652729287018</v>
+        <v>0.71473185132578321</v>
       </c>
       <c r="AX67" s="0">
         <v>0</v>
@@ -13933,7 +13933,7 @@
         <v>0.78402289885913246</v>
       </c>
       <c r="B68" s="0">
-        <v>0.72348859720359049</v>
+        <v>0.89389987968505802</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.56283607540052272</v>
+        <v>0.7673129782453173</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
